--- a/BondPriceResults.xlsx
+++ b/BondPriceResults.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,6 +421,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
@@ -453,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>No price available in File 2</t>
+          <t>Bond price not found in file 2</t>
         </is>
       </c>
     </row>
